--- a/imageCreationExcel/back/0901-1/0901-1_4.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_4.xlsx
@@ -486,39 +486,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5386260467547408</v>
+        <v>0.9050666190175083</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9222146111645895</v>
+        <v>28.4717056799615</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8.254925891057422</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_Q_gamma0.54_contrast0.92_equalization8.3.jpg</t>
+          <t>1_I_sharpness0.91_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +530,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9033922035762646</v>
+        <v>20.69119777776506</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6873478620865755</v>
+        <v>0.8951037542956192</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7.80959740288924</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_J_contrast0.9_sharpness0.69_equalization7.8.jpg</t>
+          <t>2_S_brightness21.0_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +583,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.47635216792051</v>
+        <v>3.826134839091817</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +591,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.847970428388561</v>
+        <v>1.026538445562099</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +599,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5115465694809597</v>
+        <v>0.6496529425701678</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_B_brightness14.0_contrast0.85_gamma0.51.jpg</t>
+          <t>3_P_brightness3.8_contrast1.0_gamma0.65.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +616,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.349175870329125</v>
+        <v>0.9858378117289451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +633,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>26.0704073873876</v>
+        <v>10.96624118639034</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -642,11 +646,11 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_T_sharpness0.35_equalization26.0.jpg</t>
+          <t>4_1_contrast0.99_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -656,39 +660,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5796151890109194</v>
+        <v>0.9321346782728004</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.4575582770634681</v>
+        <v>31.66897772959407</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>16.76261358593263</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_J_gamma0.58_sharpness0.46_equalization17.0.jpg</t>
+          <t>5_0_sharpness0.93_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -698,24 +704,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8874153991382986</v>
+        <v>0.6745582799683941</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9340614059208502</v>
+        <v>0.4254975574851654</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -723,14 +729,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>26.50108616730385</v>
+        <v>4.677590392257942</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_0_contrast0.89_gamma0.93_equalization27.0.jpg</t>
+          <t>6_C_gamma0.67_sharpness0.43_equalization4.7.jpg</t>
         </is>
       </c>
     </row>
@@ -740,41 +746,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.148739285745609</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>7.547017265890909</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F8" t="n">
-        <v>1.014897542537465</v>
+        <v>29.1848636547753</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8757830707749431</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_brightness7.5_gamma1.0.jpg</t>
+          <t>7_J_contrast1.1_brightness29.0_sharpness0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -784,7 +788,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -793,15 +797,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8100162190156619</v>
+        <v>1.110944321835435</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7934039567069859</v>
+        <v>0.05730781973974697</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -809,14 +813,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15.81320594888712</v>
+        <v>15.5166220731793</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_0_contrast0.81_gamma0.79_equalization16.0.jpg</t>
+          <t>8_2_contrast1.1_sharpness0.057_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -826,7 +830,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -835,7 +839,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29.71954906669773</v>
+        <v>15.47804004156028</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -843,22 +847,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5912075608251387</v>
+        <v>0.6352602121262052</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8885602462856079</v>
+        <v>0.8183545708999321</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_I_brightness30.0_gamma0.59_sharpness0.89.jpg</t>
+          <t>9_9_brightness15.0_gamma0.64_contrast0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -868,7 +872,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -877,15 +881,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5423457618350119</v>
+        <v>1.087162555497289</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.021625864768021</v>
+        <v>11.00433019668111</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -898,11 +902,11 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_P_gamma0.54_contrast1.0.jpg</t>
+          <t>10_C_gamma1.1_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -912,41 +916,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9839947446863547</v>
+        <v>0.06992029711248982</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12.01981698394357</v>
+        <v>1.061867148038331</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1.116288844933681</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_gamma0.98_equalization12.0.jpg</t>
+          <t>11_0_sharpness0.07_brightness1.1_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -956,16 +958,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6932578379346845</v>
+        <v>0.783752904153793</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -973,24 +975,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9186335871451912</v>
+        <v>1.006961806592295</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1.46592567011688</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_1_sharpness0.69_contrast0.92.jpg</t>
+          <t>12_I_gamma0.78_contrast1.0_brightness1.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1000,39 +1000,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.846676100929984</v>
+        <v>0.8513134682275683</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.2225046342177922</v>
+        <v>31.50644448271738</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5636640425038542</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_0_brightness4.8_sharpness0.22_gamma0.56.jpg</t>
+          <t>13_S_gamma0.85_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1042,41 +1044,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8406749136329255</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9250262613707507</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>6.770513607015591</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7549987946067552</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H15" t="n">
+        <v>29.69711855991975</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_P_brightness6.8_sharpness0.75.jpg</t>
+          <t>14_2_contrast0.84_gamma0.93_brightness30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1086,16 +1086,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.110943580201297</v>
+        <v>4.049554018959642</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1103,22 +1103,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9118674871469211</v>
+        <v>0.551774227847073</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>21.52700590637425</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_1_contrast1.1_sharpness0.91_equalization22.0.jpg</t>
+          <t>15_7_brightness4.0_sharpness0.55.jpg</t>
         </is>
       </c>
     </row>
@@ -1128,41 +1130,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03488237822305129</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9064754671923466</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0.7563351302774379</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>17.20232598075289</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H17" t="n">
+        <v>0.717754494937195</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_gamma0.76_brightness17.0.jpg</t>
+          <t>16_2_sharpness0.035_contrast0.91_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -1172,24 +1172,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.019498948829589</v>
+        <v>0.6727687737520888</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>20.15826040108587</v>
+        <v>27.29612611199597</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_1_gamma1.0_brightness20.0.jpg</t>
+          <t>17_S_sharpness0.67_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1216,39 +1216,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.180221697426248</v>
+        <v>0.6313940545234211</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.2248993317675148</v>
+        <v>4.541548916349297</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>19.32952665556782</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_E_contrast1.2_sharpness0.22_equalization19.0.jpg</t>
+          <t>18_1_gamma0.63_brightness4.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1258,24 +1260,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9328259482625735</v>
+        <v>0.7689939570227022</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6517856677619454</v>
+        <v>13.976700963698</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1292,7 +1294,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_8_contrast0.93_sharpness0.65.jpg</t>
+          <t>19_P_sharpness0.77_brightness14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1302,41 +1304,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8344570100515035</v>
+        <v>0.9468468341484666</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.793319102662474</v>
+        <v>1.00255439349224</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7.151339265103029</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_C_contrast0.83_equalization7.8.jpg</t>
+          <t>20_T_gamma0.95_contrast1.0_brightness7.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1355,15 +1355,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9692888140477627</v>
+        <v>0.9385542840586794</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28.13814625388878</v>
+        <v>0.717148539137751</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_E_contrast0.97_brightness28.0.jpg</t>
+          <t>21_E_contrast0.94_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -1390,41 +1390,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.189139867564878</v>
+        <v>0.6085326192594456</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10.68831196057607</v>
+        <v>1.044690470261225</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>21.65623366512404</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_P_contrast1.2_brightness11.0.jpg</t>
+          <t>22_3_sharpness0.61_contrast1.0_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1439,34 +1437,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.00518032423016</v>
+        <v>0.7402635648293576</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5203246224698153</v>
+        <v>29.63436106962798</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>0.6364963658664375</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_contrast1.0_gamma0.52_sharpness0.64.jpg</t>
+          <t>23_S_gamma0.74_brightness30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1476,24 +1476,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.150347409272013</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0.03180536517951571</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F25" t="n">
-        <v>0.9315173385706653</v>
+        <v>0.169190648376613</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1501,14 +1501,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>24.35176887375197</v>
+        <v>25.73609494974531</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_9_sharpness0.032_gamma0.93_equalization24.0.jpg</t>
+          <t>24_8_contrast1.2_sharpness0.17_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1518,24 +1518,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.7838048354402627</v>
+        <v>0.8770801792467746</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7.268202803390317</v>
+        <v>30.93742695633058</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_gamma0.78_brightness7.3.jpg</t>
+          <t>25_S_contrast0.88_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1571,30 +1571,32 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5.196251071846857</v>
+        <v>27.20646913133379</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9038878307933513</v>
+        <v>0.8616654917260335</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>0.6302865457072865</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_T_brightness5.2_gamma0.9_sharpness0.63.jpg</t>
+          <t>26_S_brightness27.0_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1604,24 +1606,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18.10284265558796</v>
+        <v>0.7028802581046667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.150958380639191</v>
+        <v>29.4707600433817</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1634,11 +1636,11 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_brightness18.0_contrast1.2.jpg</t>
+          <t>27_B_sharpness0.7_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1650,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1657,32 +1659,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.088984338928005</v>
+        <v>0.8394031429271784</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>16.5126193624298</v>
+        <v>3.270425012716704</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8673063750717827</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_S_contrast1.1_equalization17.0.jpg</t>
+          <t>28_B_contrast0.84_brightness3.3_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6649380955364709</v>
+        <v>0.9960592699343974</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1709,22 +1709,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6903689776037916</v>
+        <v>1.022484077784935</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.9920100938186615</v>
+        <v>19.14927770043199</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_3_sharpness0.66_gamma0.69_contrast0.99.jpg</t>
+          <t>29_T_sharpness1.0_gamma1.0_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1743,15 +1743,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.7680102546813794</v>
+        <v>0.9933936281881584</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>11.54831469165916</v>
+        <v>1.170239616047414</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1764,11 +1764,11 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_J_gamma0.77_equalization12.0.jpg</t>
+          <t>30_8_gamma0.99_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1778,39 +1778,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.1488748865077385</v>
+        <v>0.8782075140604966</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>25.82779368030954</v>
+        <v>0.8957198385471471</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.005393890736727</v>
+        <v>25.1189060416999</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_2_sharpness0.15_brightness26.0_gamma1.0.jpg</t>
+          <t>31_9_gamma0.88_contrast0.9_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1820,24 +1820,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9886579819595981</v>
+        <v>0.8718656891400554</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>16.9313785148301</v>
+        <v>12.57244098809518</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_S_sharpness0.99_equalization17.0.jpg</t>
+          <t>32_2_gamma0.87_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1873,15 +1873,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7578103103523341</v>
+        <v>0.5339824486508513</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.105548667519262</v>
+        <v>0.503059126829326</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1889,14 +1889,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>16.00042137670781</v>
+        <v>17.73817687216505</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_1_gamma0.76_contrast1.1_equalization16.0.jpg</t>
+          <t>33_J_gamma0.53_sharpness0.5_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1906,41 +1906,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9560178622864878</v>
+        <v>0.2164125702092473</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>25.34212697829719</v>
+        <v>18.13540819498543</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8875579121330002</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_J_contrast0.96_equalization25.0.jpg</t>
+          <t>34_C_sharpness0.22_brightness18.0_contrast0.89.jpg</t>
         </is>
       </c>
     </row>
@@ -1950,41 +1948,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.089775577466774</v>
+        <v>0.05429583330863674</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.145197414145691</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>10.11259035906321</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H36" t="n">
+        <v>11.24887835709727</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_T_gamma1.1_equalization10.0.jpg</t>
+          <t>35_I_sharpness0.054_contrast1.1_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1994,24 +1990,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6.310500784162643</v>
+        <v>1.144638477326594</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1585521471069757</v>
+        <v>5.922641374964822</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2028,7 +2024,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_Q_brightness6.3_sharpness0.16.jpg</t>
+          <t>36_I_contrast1.1_equalization5.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2038,16 +2034,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5041027407709312</v>
+        <v>1.117003571873061</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2055,7 +2051,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>12.87808641631629</v>
+        <v>28.479849105238</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2068,11 +2064,11 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_8_sharpness0.5_equalization13.0.jpg</t>
+          <t>37_Q_contrast1.1_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,24 +2078,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.040835310776678</v>
+        <v>0.09706307471933318</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>23.93604380990669</v>
+        <v>20.12462588671949</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2112,11 +2108,11 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_8_contrast1.0_equalization24.0.jpg</t>
+          <t>38_Q_sharpness0.097_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2126,24 +2122,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6805347418481887</v>
+        <v>0.5962534208466534</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7744477064837156</v>
+        <v>24.10538815455246</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2160,7 +2156,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_Q_sharpness0.68_gamma0.77.jpg</t>
+          <t>39_2_gamma0.6_brightness24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2170,41 +2166,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>24.92872673885853</v>
+        <v>1.003342193589403</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.645183789542372</v>
+        <v>0.3883926065130733</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>16.0681557898782</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_brightness25.0_gamma0.65.jpg</t>
+          <t>40_9_contrast1.0_sharpness0.39_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2214,39 +2208,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.7067452556779571</v>
+        <v>0.1136717011578908</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8496773671356278</v>
+        <v>1.025729781311111</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>30.16155815445524</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_3_gamma0.71_sharpness0.85_equalization30.0.jpg</t>
+          <t>41_1_sharpness0.11_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2256,16 +2252,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.057957535516307</v>
+        <v>0.3507744685310276</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2273,7 +2269,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.043196148942724</v>
+        <v>0.95096450058753</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2290,7 +2286,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_Q_brightness2.1_contrast1.0.jpg</t>
+          <t>42_J_sharpness0.35_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -2300,39 +2296,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.7221320280263979</v>
+        <v>1.150515806767151</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.017859345016338</v>
+        <v>5.960083241161746</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>13.31958163870369</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_gamma0.72_contrast1.0_equalization13.0.jpg</t>
+          <t>43_P_contrast1.2_equalization6.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2342,16 +2340,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.1330698223606706</v>
+        <v>1.182502248669119</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2359,7 +2357,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>25.55123080935731</v>
+        <v>9.963036406757011</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2376,7 +2374,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_C_sharpness0.13_equalization26.0.jpg</t>
+          <t>44_2_contrast1.2_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2386,24 +2384,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19.80480313285792</v>
+        <v>1.197550491993467</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.046862561311746</v>
+        <v>0.9662279141346033</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2420,7 +2418,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_C_brightness20.0_gamma1.0.jpg</t>
+          <t>45_B_contrast1.2_sharpness0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -2430,24 +2428,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1.094307898605625</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>0.0657101025447222</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F47" t="n">
-        <v>0.9455669042611172</v>
+        <v>0.7436540970493373</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2455,14 +2453,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>12.51904849165973</v>
+        <v>23.32282628291765</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_P_sharpness0.066_gamma0.95_equalization13.0.jpg</t>
+          <t>46_Q_gamma1.1_sharpness0.74_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2470,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2481,30 +2479,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12.00028127533993</v>
+        <v>23.94043416282865</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1009856710861504</v>
+        <v>1.158667154281856</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.109191053443468</v>
+        <v>0.6567884751032558</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_E_brightness12.0_sharpness0.1_contrast1.1.jpg</t>
+          <t>47_B_brightness24.0_contrast1.2_gamma0.66.jpg</t>
         </is>
       </c>
     </row>
@@ -2523,30 +2521,30 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9674241360996906</v>
+        <v>0.9742944430250338</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.4202062504867436</v>
+        <v>4.3343461298179</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10.68034987912065</v>
+        <v>0.5586166040319837</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_T_contrast0.97_sharpness0.42_equalization11.0.jpg</t>
+          <t>48_T_contrast0.97_brightness4.3_gamma0.56.jpg</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/back/0901-1/0901-1_4.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_4.xlsx
@@ -491,19 +491,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9050666190175083</v>
+        <v>15.73294218908273</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>28.4717056799615</v>
+        <v>1.090422861606889</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_I_sharpness0.91_equalization28.0.jpg</t>
+          <t>1_I_brightness16.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -530,16 +530,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20.69119777776506</v>
+        <v>0.9285444580074013</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,24 +547,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8951037542956192</v>
+        <v>0.7211408633178803</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>31.8961324193475</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_S_brightness21.0_gamma0.9.jpg</t>
+          <t>2_E_contrast0.93_gamma0.72_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -574,39 +572,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9419157105417364</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>3.826134839091817</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F4" t="n">
-        <v>1.026538445562099</v>
+        <v>25.66397848976003</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6496529425701678</v>
+        <v>0.5268254490267</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_brightness3.8_contrast1.0_gamma0.65.jpg</t>
+          <t>3_0_contrast0.94_brightness26.0_sharpness0.53.jpg</t>
         </is>
       </c>
     </row>
@@ -616,41 +614,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9858378117289451</v>
+        <v>0.9824944740991336</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6604486309362677</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>10.96624118639034</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H5" t="n">
+        <v>18.44396692024577</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_1_contrast0.99_equalization11.0.jpg</t>
+          <t>4_P_sharpness0.98_gamma0.66_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -665,19 +661,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9321346782728004</v>
+        <v>14.96481954220435</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>31.66897772959407</v>
+        <v>0.05916320869410274</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -690,11 +686,11 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_0_sharpness0.93_equalization32.0.jpg</t>
+          <t>5_0_brightness15.0_sharpness0.059.jpg</t>
         </is>
       </c>
     </row>
@@ -704,39 +700,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6407950326093561</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.6745582799683941</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F7" t="n">
-        <v>0.4254975574851654</v>
+        <v>0.7170500460598317</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4.677590392257942</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_C_gamma0.67_sharpness0.43_equalization4.7.jpg</t>
+          <t>6_I_sharpness0.64_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -746,7 +744,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,30 +753,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.148739285745609</v>
+        <v>1.057743313913749</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>29.1848636547753</v>
+        <v>0.06475849117860499</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8757830707749431</v>
+        <v>23.13731114404243</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_J_contrast1.1_brightness29.0_sharpness0.88.jpg</t>
+          <t>7_E_contrast1.1_sharpness0.065_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -788,16 +786,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.110944321835435</v>
+        <v>0.9998687481234763</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -805,7 +803,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.05730781973974697</v>
+        <v>0.8593140094444131</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -813,14 +811,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15.5166220731793</v>
+        <v>16.68185715645409</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_2_contrast1.1_sharpness0.057_equalization16.0.jpg</t>
+          <t>8_7_gamma1.0_sharpness0.86_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -830,39 +828,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15.47804004156028</v>
+        <v>0.9582726678950171</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6352602121262052</v>
+        <v>0.8997191458406979</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8183545708999321</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_9_brightness15.0_gamma0.64_contrast0.82.jpg</t>
+          <t>9_T_contrast0.96_sharpness0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -872,41 +872,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.826503182104665</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>15.04995436508467</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1.087162555497289</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>11.00433019668111</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0.7132778100894088</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_C_gamma1.1_equalization11.0.jpg</t>
+          <t>10_2_sharpness0.83_brightness15.0_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -916,7 +914,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -925,30 +923,32 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.06992029711248982</v>
+        <v>0.04500988306221565</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.061867148038331</v>
+        <v>18.81821198112258</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1.116288844933681</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_0_sharpness0.07_brightness1.1_contrast1.1.jpg</t>
+          <t>11_7_sharpness0.045_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,30 +967,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.783752904153793</v>
+        <v>0.6743903731519951</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.006961806592295</v>
+        <v>12.45505105022385</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.46592567011688</v>
+        <v>0.02485498398371777</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_I_gamma0.78_contrast1.0_brightness1.5.jpg</t>
+          <t>12_2_gamma0.67_brightness12.0_sharpness0.025.jpg</t>
         </is>
       </c>
     </row>
@@ -1005,19 +1005,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.988881814838087</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0.8513134682275683</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F14" t="n">
-        <v>31.50644448271738</v>
+        <v>0.5992584493650891</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_S_gamma0.85_equalization32.0.jpg</t>
+          <t>13_S_sharpness0.99_gamma0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1044,39 +1044,41 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8406749136329255</v>
+        <v>23.16310930632531</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9250262613707507</v>
+        <v>0.8964450369733478</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>29.69711855991975</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_2_contrast0.84_gamma0.93_brightness30.0.jpg</t>
+          <t>14_1_brightness23.0_sharpness0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1086,41 +1088,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.049554018959642</v>
+        <v>0.6265237804360491</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.551774227847073</v>
+        <v>0.8413137072548255</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>19.55454887151571</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_7_brightness4.0_sharpness0.55.jpg</t>
+          <t>15_E_gamma0.63_contrast0.84_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1130,39 +1130,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.03488237822305129</v>
+        <v>21.70911504853686</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9064754671923466</v>
+        <v>0.2136576517571827</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>0.717754494937195</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_2_sharpness0.035_contrast0.91_gamma0.72.jpg</t>
+          <t>16_0_brightness22.0_sharpness0.21.jpg</t>
         </is>
       </c>
     </row>
@@ -1172,41 +1174,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6727687737520888</v>
+        <v>1.07784307349161</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>27.29612611199597</v>
+        <v>29.56665873164087</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6279981565196309</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_S_sharpness0.67_equalization27.0.jpg</t>
+          <t>17_7_contrast1.1_brightness30.0_gamma0.63.jpg</t>
         </is>
       </c>
     </row>
@@ -1221,11 +1221,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6313940545234211</v>
+        <v>0.7383714812077444</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.541548916349297</v>
+        <v>23.86433284893001</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1246,11 +1246,11 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_1_gamma0.63_brightness4.5.jpg</t>
+          <t>18_1_sharpness0.74_brightness24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1265,36 +1265,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.7689939570227022</v>
+        <v>1.09581208727746</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>13.976700963698</v>
+        <v>0.4635001364916699</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8742144262570239</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_P_sharpness0.77_brightness14.0.jpg</t>
+          <t>19_P_contrast1.1_sharpness0.46_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1304,39 +1302,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6117975959424983</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0.9468468341484666</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F21" t="n">
-        <v>1.00255439349224</v>
+        <v>1.062435257643803</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7.151339265103029</v>
+        <v>0.8644607306063287</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_gamma0.95_contrast1.0_brightness7.2.jpg</t>
+          <t>20_1_sharpness0.61_gamma1.1_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1346,24 +1344,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9385542840586794</v>
+        <v>4.859636129045834</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.717148539137751</v>
+        <v>0.9121415539085777</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1380,7 +1378,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_E_contrast0.94_gamma0.72.jpg</t>
+          <t>21_B_brightness4.9_sharpness0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1390,16 +1388,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6085326192594456</v>
+        <v>20.46849099421216</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1407,22 +1405,24 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.044690470261225</v>
+        <v>0.9647497640402803</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>21.65623366512404</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_3_sharpness0.61_contrast1.0_equalization22.0.jpg</t>
+          <t>22_S_brightness20.0_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -1432,41 +1432,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20.21998537225043</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9979751190680523</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0.7402635648293576</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>29.63436106962798</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H24" t="n">
+        <v>0.7806544906240885</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_gamma0.74_brightness30.0.jpg</t>
+          <t>23_2_brightness20.0_contrast1.0_gamma0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1474,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1485,30 +1483,32 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.150347409272013</v>
+        <v>0.9051454912399667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.169190648376613</v>
+        <v>0.9166890843048852</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>25.73609494974531</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_contrast1.2_sharpness0.17_equalization26.0.jpg</t>
+          <t>24_C_contrast0.91_gamma0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -1518,41 +1518,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8770801792467746</v>
+        <v>0.4508104014380614</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>30.93742695633058</v>
+        <v>0.8294751423309252</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8890256455453981</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_S_contrast0.88_equalization31.0.jpg</t>
+          <t>25_J_sharpness0.45_gamma0.83_contrast0.89.jpg</t>
         </is>
       </c>
     </row>
@@ -1562,24 +1560,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27.20646913133379</v>
+        <v>0.6012901443282131</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8616654917260335</v>
+        <v>0.6814762463395078</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1592,11 +1590,11 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_S_brightness27.0_contrast0.86.jpg</t>
+          <t>26_I_sharpness0.6_gamma0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1604,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1615,15 +1613,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.7028802581046667</v>
+        <v>0.1880585804677739</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>29.4707600433817</v>
+        <v>0.8582352949344558</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1636,11 +1634,11 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_sharpness0.7_equalization29.0.jpg</t>
+          <t>27_C_sharpness0.19_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1648,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1659,7 +1657,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8394031429271784</v>
+        <v>1.049007692394325</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1667,22 +1665,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.270425012716704</v>
+        <v>17.37681511553664</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>0.8673063750717827</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_B_contrast0.84_brightness3.3_gamma0.87.jpg</t>
+          <t>28_E_contrast1.0_brightness17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1692,39 +1692,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9960592699343974</v>
+        <v>0.9790593290576795</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.022484077784935</v>
+        <v>21.34906354107226</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>19.14927770043199</v>
+        <v>0.9188886841817968</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_T_sharpness1.0_gamma1.0_equalization19.0.jpg</t>
+          <t>29_3_gamma0.98_brightness21.0_sharpness0.92.jpg</t>
         </is>
       </c>
     </row>
@@ -1734,24 +1734,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>17.71011323758315</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0.9933936281881584</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F31" t="n">
-        <v>1.170239616047414</v>
+        <v>1.039337644395989</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1764,11 +1764,11 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_8_gamma0.99_contrast1.2.jpg</t>
+          <t>30_C_brightness18.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1787,30 +1787,32 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8782075140604966</v>
+        <v>0.9489860658370879</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8957198385471471</v>
+        <v>2.836881989081224</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>25.1189060416999</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_9_gamma0.88_contrast0.9_equalization25.0.jpg</t>
+          <t>31_Q_gamma0.95_brightness2.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1820,24 +1822,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8718656891400554</v>
+        <v>3.593532687502176</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>12.57244098809518</v>
+        <v>0.1064926609037767</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1854,7 +1856,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_2_gamma0.87_brightness13.0.jpg</t>
+          <t>32_8_brightness3.6_sharpness0.11.jpg</t>
         </is>
       </c>
     </row>
@@ -1864,24 +1866,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1.062858893765481</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0.5339824486508513</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F34" t="n">
-        <v>0.503059126829326</v>
+        <v>0.7160285385956496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1889,14 +1891,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>17.73817687216505</v>
+        <v>21.71301222896031</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_J_gamma0.53_sharpness0.5_equalization18.0.jpg</t>
+          <t>33_C_contrast1.1_gamma0.72_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1906,16 +1908,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.2164125702092473</v>
+        <v>1.024637374442492</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1923,22 +1925,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>18.13540819498543</v>
+        <v>16.14003667710257</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>0.8875579121330002</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_C_sharpness0.22_brightness18.0_contrast0.89.jpg</t>
+          <t>34_E_contrast1.0_brightness16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1948,39 +1952,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.05429583330863674</v>
+        <v>1.140630681726858</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.145197414145691</v>
+        <v>0.08887840613033005</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>11.24887835709727</v>
+        <v>7.803128109849825</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_I_sharpness0.054_contrast1.1_equalization11.0.jpg</t>
+          <t>35_2_contrast1.1_sharpness0.089_brightness7.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1990,41 +1994,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.144638477326594</v>
+        <v>1.045496371599677</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.184433652656516</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>5.922641374964822</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H37" t="n">
+        <v>20.69781981421747</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_I_contrast1.1_equalization5.9.jpg</t>
+          <t>36_J_gamma1.0_contrast1.2_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2034,24 +2036,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.117003571873061</v>
+        <v>17.57241141910414</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>28.479849105238</v>
+        <v>1.036241097201431</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2068,7 +2070,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_Q_contrast1.1_equalization28.0.jpg</t>
+          <t>37_7_brightness18.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2078,41 +2080,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.09706307471933318</v>
+        <v>1.062706875681204</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8663145635744751</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>20.12462588671949</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H39" t="n">
+        <v>7.253796337189301</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_Q_sharpness0.097_brightness20.0.jpg</t>
+          <t>38_P_contrast1.1_sharpness0.87_brightness7.3.jpg</t>
         </is>
       </c>
     </row>
@@ -2122,41 +2122,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1.159693290869731</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>0.5962534208466534</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F40" t="n">
-        <v>24.10538815455246</v>
+        <v>0.5797747096972879</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>12.9370113879149</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_2_gamma0.6_brightness24.0.jpg</t>
+          <t>39_3_contrast1.2_gamma0.58_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,24 +2164,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.003342193589403</v>
+        <v>0.6015202407365248</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3883926065130733</v>
+        <v>0.9584044447810235</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2191,14 +2189,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>16.0681557898782</v>
+        <v>28.34164184901484</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_contrast1.0_sharpness0.39_equalization16.0.jpg</t>
+          <t>40_I_sharpness0.6_contrast0.96_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,16 +2206,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1136717011578908</v>
+        <v>22.45892010609929</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2225,24 +2223,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.025729781311111</v>
+        <v>1.115728763527185</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8091314653037669</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_1_sharpness0.11_contrast1.0.jpg</t>
+          <t>41_9_brightness22.0_contrast1.1_gamma0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -2252,24 +2248,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.3507744685310276</v>
+        <v>0.8055412782082447</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.95096450058753</v>
+        <v>30.86618925950162</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2286,7 +2282,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_J_sharpness0.35_contrast0.95.jpg</t>
+          <t>42_Q_gamma0.81_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2292,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2305,32 +2301,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.150515806767151</v>
+        <v>1.187563707136092</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4202723608115132</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>5.960083241161746</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H44" t="n">
+        <v>26.21920682591825</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_P_contrast1.2_equalization6.0.jpg</t>
+          <t>43_0_contrast1.2_sharpness0.42_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2340,16 +2334,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.182502248669119</v>
+        <v>0.573288888700256</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2357,7 +2351,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>9.963036406757011</v>
+        <v>8.372869091037773</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2370,11 +2364,11 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_contrast1.2_equalization10.0.jpg</t>
+          <t>44_8_sharpness0.57_equalization8.4.jpg</t>
         </is>
       </c>
     </row>
@@ -2384,24 +2378,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.197550491993467</v>
+        <v>0.5818839251457426</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9662279141346033</v>
+        <v>0.4860290524551181</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2414,11 +2408,11 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_B_contrast1.2_sharpness0.97.jpg</t>
+          <t>45_1_gamma0.58_brightness0.49.jpg</t>
         </is>
       </c>
     </row>
@@ -2428,16 +2422,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.094307898605625</v>
+        <v>1.156307506454667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2445,22 +2439,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.7436540970493373</v>
+        <v>0.9871695664937642</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>23.32282628291765</v>
+        <v>11.9644973588037</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_Q_gamma1.1_sharpness0.74_equalization23.0.jpg</t>
+          <t>46_C_contrast1.2_sharpness0.99_brightness12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2475,34 +2469,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>23.94043416282865</v>
+        <v>0.867991224209294</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.158667154281856</v>
+        <v>0.3354067896137736</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.6567884751032558</v>
+        <v>5.253051551889376</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_B_brightness24.0_contrast1.2_gamma0.66.jpg</t>
+          <t>47_B_gamma0.87_sharpness0.34_equalization5.3.jpg</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2506,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2521,30 +2515,30 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9742944430250338</v>
+        <v>0.8691476324993147</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1955497884028202</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>4.3343461298179</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H49" t="n">
-        <v>0.5586166040319837</v>
+        <v>5.097596518875626</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_T_contrast0.97_brightness4.3_gamma0.56.jpg</t>
+          <t>48_9_contrast0.87_sharpness0.2_brightness5.1.jpg</t>
         </is>
       </c>
     </row>
